--- a/evaluations/GPT/2025-04-05_094619/dice_game/no_smells_01/evaluation.xlsx
+++ b/evaluations/GPT/2025-04-05_094619/dice_game/no_smells_01/evaluation.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -614,11 +614,9 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -868,7 +866,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4">
         <f>SUM(F2:F26)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
